--- a/443/data/p402_443_data/hahn_sequenz/data.xlsx
+++ b/443/data/p402_443_data/hahn_sequenz/data.xlsx
@@ -637,40 +637,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,11 +730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="25177472"/>
-        <c:axId val="25073152"/>
+        <c:axId val="235766144"/>
+        <c:axId val="235768448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25177472"/>
+        <c:axId val="235766144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,12 +744,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="25073152"/>
+        <c:crossAx val="235768448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25073152"/>
+        <c:axId val="235768448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="25177472"/>
+        <c:crossAx val="235766144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1137,7 +1137,7 @@
         <v>142</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>8.2899999999999991</v>
@@ -1157,7 +1157,7 @@
         <v>143</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>7.2862499999999999</v>
@@ -1177,7 +1177,7 @@
         <v>144</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>6.5374999999999996</v>
@@ -1197,7 +1197,7 @@
         <v>145</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>5.915</v>
@@ -1217,7 +1217,7 @@
         <v>146</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>5.2862499999999999</v>
@@ -1237,7 +1237,7 @@
         <v>147</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>4.7300000000000004</v>
@@ -1257,7 +1257,7 @@
         <v>148</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>4.3425000000000002</v>
@@ -1277,7 +1277,7 @@
         <v>149</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>3.97</v>
@@ -1297,7 +1297,7 @@
         <v>150</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>3.6037499999999998</v>
@@ -1317,7 +1317,7 @@
         <v>151</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>3.28</v>
@@ -1337,7 +1337,7 @@
         <v>152</v>
       </c>
       <c r="C14">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>2.2237499999999999</v>
@@ -1357,7 +1357,7 @@
         <v>153</v>
       </c>
       <c r="C15">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>1.5349999999999999</v>
